--- a/src/_static/xlsx/tab_elenco_delle_funzionalita__disponibilini_nella_web_app.xlsx
+++ b/src/_static/xlsx/tab_elenco_delle_funzionalita__disponibilini_nella_web_app.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20115" windowHeight="6975"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="19440" windowHeight="6915"/>
   </bookViews>
   <sheets>
     <sheet name="Sito WEB di ANPR" sheetId="1" r:id="rId1"/>
-    <sheet name="Integrazione basi dati locali" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio4" sheetId="4" r:id="rId3"/>
+    <sheet name="Foglio4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="152">
   <si>
     <t>Voce di menu</t>
   </si>
@@ -27,55 +26,6 @@
     <t>Descrizione</t>
   </si>
   <si>
-    <t>WS 3005 - Download file</t>
-  </si>
-  <si>
-    <t>Il servizio consente di effettuare il download di un file elaborato dal sistema utilizzando l'identificativo operazione assegnato da ANPR in fase di inserimento della relativa richiesta di elaborazione.</t>
-  </si>
-  <si>
-    <t>WS 4001 Richiesta di estrazione elenco cittadini</t>
-  </si>
-  <si>
-    <t>Il servizio consente di inserire una richiesta di estrazione di elenchi di cittadini utilizzando diversi criteri di ricerca (identificativi di ANPR, identificativi comunali, periodo di riferimento, etc.).  La richiesta viene presa in carico ed il sistema restituisce un identificativo operazione ANPR da utilizzare successivamente per ricercare l'elaborato. L'elaborazione dell'elenco viene effettuata in modalità asincrona.</t>
-  </si>
-  <si>
-    <t>Servizio</t>
-  </si>
-  <si>
-    <t>WS 3003 - Gestione operazioni</t>
-  </si>
-  <si>
-    <t>WS 4003 Richiesta prospetti statistici</t>
-  </si>
-  <si>
-    <t>Il servizio consente di richiedere dei prospetti statistici, mensili o annuali,  di supporto alle rilevazioni statistiche di tipo anagrafico che i comuni inoltrano all'ISTAT.  La richiesta viene presa in carico ed il sistema restituisce un identificativo operazione ANPR da utilizzare successivamente per ricercare l'elaborato. L'elaborazione del prospetto  viene effettuata in modalità asincrona.</t>
-  </si>
-  <si>
-    <t>WS N000 Notifiche</t>
-  </si>
-  <si>
-    <t>Il servizio consente di consultare  le richieste inoltrate verso il sistema ANPR utilizzando diversi criteri di ricerca (periodo di riferimento,  identificativi operazione di ANPR o del comune,  dati di un soggetto)  con possibilità di selezionare il tipo operazione e lo stato di elaborazione. Consente inoltre di consultare le notifiche presenti a sistema con il relativo stato di fruizione.
-Restituisce il codice dell'operazione, lo stato di elaborazione e l'xml della risposta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il servizio consente di ricevere le notifiche di avvenuto subentro di un comune, conclusione di una elaborazione effettuata in differita, emigrazione verso un altro comune subentrato. Può essere utilizzato per acquisire le risposte di ANPR. </t>
-  </si>
-  <si>
-    <t>Il comune deve esporre un servizio di ricezione delle notifiche</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Consente l'invio del file di subentro</t>
-  </si>
-  <si>
-    <t>Il comune può in ogni caso inviare il file di subentro tramite sito WEB di ANPR</t>
-  </si>
-  <si>
-    <t>WS S001 - Subentro APR</t>
-  </si>
-  <si>
     <t>Registrazione</t>
   </si>
   <si>
@@ -190,9 +140,6 @@
     <t>Gestione dati del comune</t>
   </si>
   <si>
-    <t>Consente di inserire/modificare i recapiti del comune, i loghi utilizzati dalle funzioni/servizi di ANPR, i dati periodicamente comunicati al Ministero degli Affari Esteri e della Cooperazione Internazionale, utilizzati, tra l'altro, per l'emissione delle carte di identità</t>
-  </si>
-  <si>
     <t>Ricerca comuni</t>
   </si>
   <si>
@@ -247,9 +194,6 @@
     <t>Disponibile solo in ambiente di test comuni</t>
   </si>
   <si>
-    <t>Contiene il codice sorgente ed eseguibile per l'effettuazione dei test di connessione</t>
-  </si>
-  <si>
     <t>Client java di esempio da utilizzare per lo sviluppo dei servizi</t>
   </si>
   <si>
@@ -361,21 +305,12 @@
     <t>Utilità</t>
   </si>
   <si>
-    <t>Non utilzzata in questa fase</t>
-  </si>
-  <si>
     <t>(*)</t>
   </si>
   <si>
     <t>Consente di visualizzare l'elenco delle operazione effettuate in un periodo di tempo o per tipologia, ecc.</t>
   </si>
   <si>
-    <t>Consente di consultare l'elenco delle notifiche del comune non ancora acquisite</t>
-  </si>
-  <si>
-    <t>Consente di visualizzare l'elenco delle variazioni effettuate dall'Agenzia delle Entrate</t>
-  </si>
-  <si>
     <t>Consente di visualizzare l'elenco dei certificati e delle carte di identità emesse in un determinato periodo di tempo e/o per un soggetto</t>
   </si>
   <si>
@@ -394,9 +329,6 @@
     <t>Modifica/Visualizza</t>
   </si>
   <si>
-    <t>Consente di gestire le utenze già presenti a sistema, aggiornare gli indirizzi di posta elettronica e/o posta elettronica certificata alla quale saranno inviati i documenti e le comunicazioni di interesse, aggiornare i profili autorizzativi che consentono all’utenza, al momento dell’accesso tramite Smart Card, di utilizzare i servizi per i quali si è autorizzati. È possibile bloccare un’utenza in modo che non possa più accedere all’ANPR, sbloccare un’utenza precedentemente bloccata in modo di consentire nuovamente l’accesso, cancellare un’utenza</t>
-  </si>
-  <si>
     <t>Password Giornaliera</t>
   </si>
   <si>
@@ -427,9 +359,6 @@
     <t>Nuova Smart Card</t>
   </si>
   <si>
-    <t>Consente di richiedere una nuova Smart Card per gli utenti ai quali è stata precedentemente cancellata. La richiesta attiva la produzione delle nuove Smart Card che sono recapitate alla prefettura competente per la consegna all’ente. I soggetti per i quali viene richiesta una nuova Smart Card devono essere inseriti come dipendenti dell’ente</t>
-  </si>
-  <si>
     <t>Ricerca Smart Card</t>
   </si>
   <si>
@@ -445,9 +374,6 @@
     <t>Consegna Smart Card Prefettura</t>
   </si>
   <si>
-    <t>Consente di seguire l’iter di consegna delle Smart Card dalle Prefetture agli enti di propira competenza. Le Smart Card degli utenti sono inviate alla prefettura competente per giurisdizione e da queste devono essere consegnate al Sindaco, o un suo delegato, che poi provvede alla consegna agli utenti. La funzionalità consente di registrare l’avvenuta consegna della smart card al comune e stampare una ricevuta in duplice copia da firmare e conservare</t>
-  </si>
-  <si>
     <t>Sicurezza - Gestione Utenze</t>
   </si>
   <si>
@@ -472,20 +398,86 @@
     <t>Consente di risolvere i disallineamenti tra i dati anagrafici presenti nel comune e quelli presenti in Agenzia Entate</t>
   </si>
   <si>
-    <t>Risoluzione anomalie con Agenzia Entrate</t>
-  </si>
-  <si>
-    <t>Residenti Temporanei</t>
-  </si>
-  <si>
     <t>Consente l'iscrizione, la modifica e la cancellazione dei soggetti dallo schedario dei temporanei</t>
+  </si>
+  <si>
+    <t>Consente di effettuare l’iter di consegna delle Smart Card dalle Prefetture agli enti di propria competenza. Le Smart Card degli utenti sono inviate alla prefettura competente per giurisdizione e da queste devono essere consegnate al Sindaco, o un suo delegato, che poi provvede alla consegna agli utenti. La funzionalità consente di registrare l’avvenuta consegna della smart card al comune e stampare una ricevuta in duplice copia da firmare e conservare</t>
+  </si>
+  <si>
+    <t>Validazione del file di subentro</t>
+  </si>
+  <si>
+    <t>Contiene sorgenti e istruzioni per effettuare la validazione dei file di subentro ed individuare eventuali anomalie che impedirebbero il corretto caricamento in ANPR</t>
+  </si>
+  <si>
+    <t>Notifiche al comune</t>
+  </si>
+  <si>
+    <t>Certificati da utilizzare per la connessione e la verifica della firma per le notifiche al comune</t>
+  </si>
+  <si>
+    <t>Eliminazione dati</t>
+  </si>
+  <si>
+    <t>Rettifiche</t>
+  </si>
+  <si>
+    <t>Consente di interrogare tramite il codice fiscale i dati del soggetto presenti nell'archivio dell'Agenzia delle Entrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultazione AE </t>
+  </si>
+  <si>
+    <t>Richiesta cancellazione subentro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disponibile solo in ambiente di test comuni </t>
+  </si>
+  <si>
+    <t>Consente al comune di richiedere la cancellazione di tutti i dati inviati con il subentro e quelli inseriti successivamente per consentire di ripetere l'operazione. Vengono cancellati sia i dati APR che AIRE.</t>
+  </si>
+  <si>
+    <t>Consente di visualizzare l’elenco delle notifiche provenienti da Agenzia delle Entrate che riguardano la variazione di un codice fiscale di competenza del Comune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consente di visualizzare le notifiche generate da ANPR a fronte di variazioni anagrafiche o operazioni concluse </t>
+  </si>
+  <si>
+    <t>Consente al Comune di effettuare il download di file prodotti da ANPR (anomalie del subentro, elenco subentrati, elenchi rivestimento codici fiscali ecc.);</t>
+  </si>
+  <si>
+    <t>consente al Comune di trasmettere un file al sistema ANPR per una eventuale successiva trattazione</t>
+  </si>
+  <si>
+    <t>Risoluzione disallineamenti con Agenzia Entrate</t>
+  </si>
+  <si>
+    <t>Residenza Temporanei</t>
+  </si>
+  <si>
+    <t>Consente di cancellare i dati della paternità e maternità di un soggetto in caso di disconoscimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consente di gestire le utenze già presenti a sistema, aggiornare gli indirizzi di posta elettronica e/o posta elettronica certificata alla quale saranno inviati i documenti e le comunicazioni di interesse, aggiornare i profili autorizzativi che consentono all’utenza, al momento dell’accesso tramite Smart Card, di utilizzare i servizi per i quali si è autorizzati. È possibile bloccare un’utenza in modo che non possa più accedere all’ANPR, sbloccare un’utenza precedentemente bloccata in modo di consentire nuovamente l’accesso. E' possibile cancellare un’utenza, questa operazione cancella sia l'utenza che il certificato della smart card eventualmente associata e non è reversibile.  </t>
+  </si>
+  <si>
+    <t>Consente di richiedere una nuova Smart Card per gli utenti ai quali è stata precedentemente cancellata o per utenti già censiti che non ne avevano. La richiesta attiva la produzione delle nuove Smart Card che sono recapitate alla prefettura competente per la consegna all’ente. I soggetti per i quali viene richiesta una nuova Smart Card devono essere inseriti come dipendenti dell’ente</t>
+  </si>
+  <si>
+    <t>Consente di inserire/modificare i recapiti del comune, i loghi utilizzati dalle funzioni/servizi di ANPR, i dati periodicamente comunicati al Ministero degli Affari Esteri e della Cooperazione Internazionale, utilizzati, tra l'altro, per l'emissione delle carte di identità. Consente inoltre di impostare alcuni parametri per l'emissione dei certificati ( Importo del diritto di segreteria, esenzione diritti di segreteria, modalità prevalente riscossione dell'imposta di bollo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contiene il codice sorgente ed eseguibile per l'effettuazione dei test di connessione e relative istruzioni </t>
+  </si>
+  <si>
+    <t>Consente di rettificare la data di decorrenza residenza fornita al momento del subentro soltanto quando è assente o minore della data di prima iscrizione. Rettifica dati iscrizione consente di modificare il motivo di iscrizione</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,15 +486,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -510,29 +493,28 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -814,123 +796,117 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1234,768 +1210,745 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="23.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="35" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:4" ht="13.15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>82</v>
+      <c r="D1" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="204" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="52.9" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.45" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.45" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.15" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.15" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" ht="26.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" ht="52.9" x14ac:dyDescent="0.3">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.15" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.15" x14ac:dyDescent="0.3">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="34"/>
-    </row>
-    <row r="4" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:4" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="35"/>
-    </row>
-    <row r="7" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="26" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="13.15" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="C39" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" ht="26.45" x14ac:dyDescent="0.3">
+      <c r="A42" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="26.45" x14ac:dyDescent="0.3">
+      <c r="A43" s="22"/>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" ht="52.9" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="26.45" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="25"/>
+    </row>
+    <row r="46" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="25"/>
+    </row>
+    <row r="47" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="25"/>
+    </row>
+    <row r="48" spans="1:4" s="2" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="20"/>
+      <c r="B48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" ht="26.45" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="26.45" x14ac:dyDescent="0.3">
+      <c r="A51" s="20"/>
+      <c r="B51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+      <c r="B52" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="13.15" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
+      <c r="B53" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C54" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
+      <c r="B55" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
+      <c r="B56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="19"/>
+    </row>
+    <row r="57" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A57" s="36"/>
+      <c r="B57" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="19"/>
+    </row>
+    <row r="58" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
+      <c r="B58" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A59" s="36"/>
+      <c r="B59" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="25"/>
+    </row>
+    <row r="60" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
+      <c r="B60" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="C60" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="36"/>
+      <c r="B61" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="33"/>
+    </row>
+    <row r="62" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="36"/>
+      <c r="B62" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="33"/>
+    </row>
+    <row r="63" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="37"/>
+      <c r="B63" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="33"/>
+    </row>
+    <row r="65" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="16"/>
-    </row>
-    <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="16"/>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="16"/>
-    </row>
-    <row r="54" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="38"/>
-      <c r="B54" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D54" s="16"/>
-    </row>
-    <row r="55" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="38"/>
-      <c r="B55" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="23"/>
-    </row>
-    <row r="56" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
-      <c r="B56" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" s="23"/>
-    </row>
-    <row r="57" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
-      <c r="B57" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="23"/>
-    </row>
-    <row r="59" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>149</v>
+      <c r="B65" s="24" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A55:A63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2010,6 +1963,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -2123,7 +2082,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2132,13 +2091,22 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FC4CC00-8EB2-4396-BC6A-B18B7B57B01B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8913088F-B44C-416A-9456-F3EC744B8B5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2154,25 +2122,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E950D899-3A6A-4059-BF43-F0C802CE4030}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FC4CC00-8EB2-4396-BC6A-B18B7B57B01B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>